--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="1" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,9 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+  <si>
+    <t>outboundStreams</t>
+  </si>
+  <si>
+    <t>maxMsgSize (B)</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>cwnd</t>
+  </si>
+  <si>
+    <t>Total Sent Bytes</t>
+  </si>
+  <si>
+    <t>Total Received Bytes</t>
+  </si>
+  <si>
+    <t>dropPk</t>
+  </si>
+  <si>
+    <t>Versuch Nr.</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>Protokol</t>
+  </si>
+  <si>
+    <t>SCTP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,15 +92,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -50,14 +126,516 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -71,6 +649,943 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Durchsatz von SCTP bei maxMessageSize 786B</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$E$17:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>330439116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330439116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330461124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330537366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD02-4AB1-BB3B-8EDB9F296777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="499147000"/>
+        <c:axId val="499145032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="499147000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499145032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="499145032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499147000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2BD353-652F-47B8-8B95-58F99D2D2D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,14 +1885,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1440</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1440</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20">
+        <v>2060000000</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>786</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>786</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24">
+        <v>1921564146</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="27">
+        <v>2.06</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="17" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E2" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>786</v>
+      </c>
+      <c r="E3" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="45">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1</v>
+      </c>
+      <c r="D5" s="48">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="49">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="40">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E6" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="37">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>786</v>
+      </c>
+      <c r="E7" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="45">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="43">
+        <v>2</v>
+      </c>
+      <c r="D9" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="45">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="43">
+        <v>6</v>
+      </c>
+      <c r="D10" s="44">
+        <v>786</v>
+      </c>
+      <c r="E10" s="45">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="43">
+        <v>6</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1440</v>
+      </c>
+      <c r="E11" s="45">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>10</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43">
+        <v>12</v>
+      </c>
+      <c r="D12" s="44">
+        <v>786</v>
+      </c>
+      <c r="E12" s="45">
+        <v>330537366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46">
+        <v>10</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="43">
+        <v>12</v>
+      </c>
+      <c r="D13" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E13" s="45">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>786</v>
+      </c>
+      <c r="E17" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="37">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>786</v>
+      </c>
+      <c r="E18" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="43">
+        <v>6</v>
+      </c>
+      <c r="D19" s="44">
+        <v>786</v>
+      </c>
+      <c r="E19" s="45">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="43">
+        <v>12</v>
+      </c>
+      <c r="D20" s="44">
+        <v>786</v>
+      </c>
+      <c r="E20" s="45">
+        <v>330537366</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E23" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="40">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E24" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="43">
+        <v>6</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1440</v>
+      </c>
+      <c r="E25" s="45">
+        <v>346744800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="1" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1884,6 +1884,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="17" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E2" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>786</v>
+      </c>
+      <c r="E3" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="45">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1</v>
+      </c>
+      <c r="D5" s="48">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="49">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="40">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E6" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="37">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>786</v>
+      </c>
+      <c r="E7" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="45">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="43">
+        <v>2</v>
+      </c>
+      <c r="D9" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="45">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="43">
+        <v>6</v>
+      </c>
+      <c r="D10" s="44">
+        <v>786</v>
+      </c>
+      <c r="E10" s="45">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="43">
+        <v>6</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1440</v>
+      </c>
+      <c r="E11" s="45">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>10</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43">
+        <v>12</v>
+      </c>
+      <c r="D12" s="44">
+        <v>786</v>
+      </c>
+      <c r="E12" s="45">
+        <v>330537366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46">
+        <v>10</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="43">
+        <v>12</v>
+      </c>
+      <c r="D13" s="44">
+        <v>2500</v>
+      </c>
+      <c r="E13" s="45">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>786</v>
+      </c>
+      <c r="E17" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="37">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>786</v>
+      </c>
+      <c r="E18" s="41">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="43">
+        <v>6</v>
+      </c>
+      <c r="D19" s="44">
+        <v>786</v>
+      </c>
+      <c r="E19" s="45">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="43">
+        <v>12</v>
+      </c>
+      <c r="D20" s="44">
+        <v>786</v>
+      </c>
+      <c r="E20" s="45">
+        <v>330537366</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E23" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="40">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E24" s="41">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="43">
+        <v>6</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1440</v>
+      </c>
+      <c r="E25" s="45">
+        <v>346744800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2018,358 +2372,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="17" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
-        <v>1</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="40">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1440</v>
-      </c>
-      <c r="E2" s="41">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>786</v>
-      </c>
-      <c r="E3" s="41">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="43">
-        <v>1</v>
-      </c>
-      <c r="D4" s="44">
-        <v>1700</v>
-      </c>
-      <c r="E4" s="45">
-        <v>272377776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="47">
-        <v>1</v>
-      </c>
-      <c r="D5" s="48">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="49">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="40">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1440</v>
-      </c>
-      <c r="E6" s="41">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="37">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>786</v>
-      </c>
-      <c r="E7" s="41">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="43">
-        <v>2</v>
-      </c>
-      <c r="D8" s="44">
-        <v>1700</v>
-      </c>
-      <c r="E8" s="45">
-        <v>272377776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="43">
-        <v>2</v>
-      </c>
-      <c r="D9" s="44">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="45">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43">
-        <v>6</v>
-      </c>
-      <c r="D10" s="44">
-        <v>786</v>
-      </c>
-      <c r="E10" s="45">
-        <v>330461124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>9</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="43">
-        <v>6</v>
-      </c>
-      <c r="D11" s="44">
-        <v>1440</v>
-      </c>
-      <c r="E11" s="45">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
-        <v>10</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="43">
-        <v>12</v>
-      </c>
-      <c r="D12" s="44">
-        <v>786</v>
-      </c>
-      <c r="E12" s="45">
-        <v>330537366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
-        <v>10</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="43">
-        <v>12</v>
-      </c>
-      <c r="D13" s="44">
-        <v>2500</v>
-      </c>
-      <c r="E13" s="45">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="40">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16">
-        <v>786</v>
-      </c>
-      <c r="E17" s="41">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="37">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>786</v>
-      </c>
-      <c r="E18" s="41">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="43">
-        <v>6</v>
-      </c>
-      <c r="D19" s="44">
-        <v>786</v>
-      </c>
-      <c r="E19" s="45">
-        <v>330461124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="43">
-        <v>12</v>
-      </c>
-      <c r="D20" s="44">
-        <v>786</v>
-      </c>
-      <c r="E20" s="45">
-        <v>330537366</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="40">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1440</v>
-      </c>
-      <c r="E23" s="41">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="40">
-        <v>2</v>
-      </c>
-      <c r="D24" s="16">
-        <v>1440</v>
-      </c>
-      <c r="E24" s="41">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="43">
-        <v>6</v>
-      </c>
-      <c r="D25" s="44">
-        <v>1440</v>
-      </c>
-      <c r="E25" s="45">
-        <v>346744800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>outboundStreams</t>
   </si>
@@ -118,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -445,71 +445,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -526,6 +461,112 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -533,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -555,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -582,56 +620,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,9 +738,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -701,9 +770,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -724,17 +796,17 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -742,24 +814,53 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="22225">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$C$17:$C$20</c:f>
+              <c:f>Tabelle2!$C$21:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -767,9 +868,24 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -777,10 +893,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$E$17:$E$20</c:f>
+              <c:f>Tabelle2!$E$21:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>330439116</c:v>
                 </c:pt>
@@ -791,6 +907,21 @@
                   <c:v>330461124</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>330536580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330536580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330461124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330536580</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330537366</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>330537366</c:v>
                 </c:pt>
               </c:numCache>
@@ -825,8 +956,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -842,8 +974,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -855,9 +988,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -882,8 +1018,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -909,7 +1046,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -944,11 +1084,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1013,78 +1156,86 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1092,7 +1243,10 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1103,87 +1257,57 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1194,10 +1318,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1209,30 +1333,31 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1241,72 +1366,56 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="79000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -1314,23 +1423,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1338,62 +1446,59 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1402,7 +1507,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -1411,7 +1519,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1419,24 +1527,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1445,24 +1554,21 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1471,25 +1577,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1498,14 +1606,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1513,15 +1622,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1532,7 +1639,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1541,7 +1651,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1551,16 +1661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1885,355 +1995,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="17" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="40">
+      <c r="B2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="45">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="46">
+        <v>786</v>
+      </c>
+      <c r="E2" s="47">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41">
         <v>1440</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E3" s="48">
         <v>346744800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="48">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64">
+        <v>4</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="56">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="62">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="45">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="37">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D6" s="46">
         <v>786</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E6" s="47">
         <v>330439116</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
+        <v>6</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="40">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1440</v>
+      </c>
+      <c r="E7" s="48">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="48">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="49">
+        <v>2</v>
+      </c>
+      <c r="D9" s="50">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="51">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="52">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="43">
-        <v>1</v>
-      </c>
-      <c r="D4" s="44">
-        <v>1700</v>
-      </c>
-      <c r="E4" s="45">
-        <v>272377776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="D10" s="53">
+        <v>786</v>
+      </c>
+      <c r="E10" s="54">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="47">
-        <v>1</v>
-      </c>
-      <c r="D5" s="48">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="49">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="D11" s="58">
+        <v>786</v>
+      </c>
+      <c r="E11" s="59">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43">
         <v>5</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="40">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1440</v>
-      </c>
-      <c r="E6" s="41">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="37">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>786</v>
-      </c>
-      <c r="E7" s="41">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="43">
-        <v>2</v>
-      </c>
-      <c r="D8" s="44">
-        <v>1700</v>
-      </c>
-      <c r="E8" s="45">
-        <v>272377776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="43">
-        <v>2</v>
-      </c>
-      <c r="D9" s="44">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="45">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43">
-        <v>6</v>
-      </c>
-      <c r="D10" s="44">
-        <v>786</v>
-      </c>
-      <c r="E10" s="45">
-        <v>330461124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>9</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="43">
-        <v>6</v>
-      </c>
-      <c r="D11" s="44">
-        <v>1440</v>
-      </c>
-      <c r="E11" s="45">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
-        <v>10</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="43">
-        <v>12</v>
       </c>
       <c r="D12" s="44">
         <v>786</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="63">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="45">
+        <v>6</v>
+      </c>
+      <c r="D13" s="46">
+        <v>786</v>
+      </c>
+      <c r="E13" s="47">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="49">
+        <v>6</v>
+      </c>
+      <c r="D14" s="50">
+        <v>1440</v>
+      </c>
+      <c r="E14" s="51">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="57">
+        <v>7</v>
+      </c>
+      <c r="D15" s="58">
+        <v>786</v>
+      </c>
+      <c r="E15" s="59">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="45">
+        <v>12</v>
+      </c>
+      <c r="D16" s="46">
+        <v>786</v>
+      </c>
+      <c r="E16" s="47">
         <v>330537366</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
-        <v>10</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="43">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="49">
         <v>12</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D17" s="50">
         <v>2500</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E17" s="51">
         <v>199882320</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="40">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="40">
         <v>1</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D21" s="41">
         <v>786</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E21" s="42">
         <v>330439116</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="37">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="40">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D22" s="41">
         <v>786</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E22" s="42">
         <v>330439116</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="43">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="40">
+        <v>3</v>
+      </c>
+      <c r="D23" s="41">
+        <v>786</v>
+      </c>
+      <c r="E23" s="42">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="40">
+        <v>4</v>
+      </c>
+      <c r="D24" s="41">
+        <v>786</v>
+      </c>
+      <c r="E24" s="42">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="40">
+        <v>5</v>
+      </c>
+      <c r="D25" s="41">
+        <v>786</v>
+      </c>
+      <c r="E25" s="42">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="40">
         <v>6</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D26" s="41">
         <v>786</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E26" s="42">
         <v>330461124</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="43">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="40">
+        <v>7</v>
+      </c>
+      <c r="D27" s="41">
+        <v>786</v>
+      </c>
+      <c r="E27" s="42">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="40">
+        <v>8</v>
+      </c>
+      <c r="D28" s="41">
+        <v>786</v>
+      </c>
+      <c r="E28" s="42">
+        <v>330537366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="40">
         <v>12</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D29" s="41">
         <v>786</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E29" s="42">
         <v>330537366</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="40">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="40">
         <v>1</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D32" s="41">
         <v>1440</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E32" s="42">
         <v>346744800</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="40">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="40">
         <v>2</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D33" s="41">
         <v>1440</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E33" s="42">
         <v>346744800</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="43">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="40">
         <v>6</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D34" s="41">
         <v>1440</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E34" s="42">
         <v>346744800</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="40">
+        <v>12</v>
+      </c>
+      <c r="D35" s="41">
+        <v>1440</v>
+      </c>
+      <c r="E35" s="42">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="40">
+        <v>1</v>
+      </c>
+      <c r="D38" s="41">
+        <v>1700</v>
+      </c>
+      <c r="E38" s="42">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="40">
+        <v>2</v>
+      </c>
+      <c r="D39" s="41">
+        <v>1700</v>
+      </c>
+      <c r="E39" s="42">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="40">
+        <v>1</v>
+      </c>
+      <c r="D42" s="41">
+        <v>2500</v>
+      </c>
+      <c r="E42" s="42">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="40">
+        <v>2</v>
+      </c>
+      <c r="D43" s="41">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="42">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="40">
+        <v>12</v>
+      </c>
+      <c r="D44" s="41">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="42">
+        <v>199882320</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2250,13 +2582,13 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2271,10 +2603,10 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -2282,7 +2614,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -2295,12 +2627,12 @@
         <v>1440</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -2310,15 +2642,15 @@
       <c r="D4" s="4">
         <v>1440</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20">
+      <c r="E4" s="12"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
         <v>2060000000</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
       <c r="B5" s="5">
@@ -2330,13 +2662,13 @@
       <c r="D5" s="2">
         <v>786</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -2347,20 +2679,20 @@
         <v>786</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24">
+      <c r="F6" s="22"/>
+      <c r="G6" s="23">
         <v>1921564146</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>2.06</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>8</v>
       </c>
     </row>

--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="1" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>outboundStreams</t>
   </si>
@@ -33,31 +33,46 @@
     <t>maxMsgSize (B)</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>cwnd</t>
-  </si>
-  <si>
-    <t>Total Sent Bytes</t>
-  </si>
-  <si>
     <t>Total Received Bytes</t>
   </si>
   <si>
-    <t>dropPk</t>
-  </si>
-  <si>
     <t>Versuch Nr.</t>
-  </si>
-  <si>
-    <t>E9</t>
   </si>
   <si>
     <t>Protokol</t>
   </si>
   <si>
     <t>SCTP</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Versuch 1</t>
+  </si>
+  <si>
+    <t>Versuch 2</t>
+  </si>
+  <si>
+    <t>Versuch 3</t>
+  </si>
+  <si>
+    <t>Versuch 4</t>
+  </si>
+  <si>
+    <t>Versuch 5</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>SCTP mit 1 Steam</t>
+  </si>
+  <si>
+    <t>SCTP mit 2 Steam</t>
+  </si>
+  <si>
+    <t>SCTP mit 3 Steam</t>
   </si>
 </sst>
 </file>
@@ -118,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -127,16 +142,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -145,7 +158,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -161,8 +176,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -174,10 +206,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -186,10 +216,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -201,10 +244,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -216,11 +274,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -229,10 +287,81 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -242,13 +371,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -257,27 +399,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -287,28 +412,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -322,23 +434,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -348,23 +447,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -374,10 +460,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -390,7 +489,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -402,10 +501,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -415,34 +514,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -456,20 +527,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -480,10 +562,77 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -493,78 +642,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -574,130 +656,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,7 +1187,385 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Durchsatz von SCTP bei unterschidlichen Packetgrößen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>330439116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346744800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272377776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199882320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C15-4738-9067-7FA2305B7631}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="661858128"/>
+        <c:axId val="661855832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="661858128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661855832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661855832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661858128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1657,20 +2107,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1690,6 +2656,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C809B91-5E20-4E5D-A635-FCD195F03F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1997,304 +2999,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
+        <v>786</v>
+      </c>
+      <c r="E2" s="28">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1440</v>
+      </c>
+      <c r="E3" s="29">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="29">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="43">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>786</v>
+      </c>
+      <c r="E6" s="28">
+        <v>330439116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1440</v>
+      </c>
+      <c r="E7" s="29">
+        <v>346744800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <v>7</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B8" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="29">
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="32">
+        <v>199882320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="39" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="C10" s="33">
+        <v>3</v>
+      </c>
+      <c r="D10" s="34">
+        <v>786</v>
+      </c>
+      <c r="E10" s="35">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
-      <c r="C2" s="45">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46">
+      <c r="B11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="38">
+        <v>4</v>
+      </c>
+      <c r="D11" s="39">
         <v>786</v>
       </c>
-      <c r="E2" s="47">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
-        <v>2</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="40">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="E11" s="40">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24">
+        <v>5</v>
+      </c>
+      <c r="D12" s="25">
+        <v>786</v>
+      </c>
+      <c r="E12" s="44">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="26">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27">
+        <v>786</v>
+      </c>
+      <c r="E13" s="28">
+        <v>330461124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="30">
+        <v>6</v>
+      </c>
+      <c r="D14" s="31">
         <v>1440</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E14" s="32">
         <v>346744800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="64">
-        <v>3</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="40">
-        <v>1</v>
-      </c>
-      <c r="D4" s="41">
-        <v>1700</v>
-      </c>
-      <c r="E4" s="48">
-        <v>272377776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64">
-        <v>4</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="55">
-        <v>1</v>
-      </c>
-      <c r="D5" s="56">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="38">
+        <v>7</v>
+      </c>
+      <c r="D15" s="39">
+        <v>786</v>
+      </c>
+      <c r="E15" s="40">
+        <v>330536580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26">
+        <v>12</v>
+      </c>
+      <c r="D16" s="27">
+        <v>786</v>
+      </c>
+      <c r="E16" s="28">
+        <v>330537366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="30">
+        <v>12</v>
+      </c>
+      <c r="D17" s="31">
         <v>2500</v>
       </c>
-      <c r="E5" s="62">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="45">
-        <v>2</v>
-      </c>
-      <c r="D6" s="46">
-        <v>786</v>
-      </c>
-      <c r="E6" s="47">
-        <v>330439116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="64">
-        <v>6</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="40">
-        <v>2</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1440</v>
-      </c>
-      <c r="E7" s="48">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
-        <v>7</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="40">
-        <v>2</v>
-      </c>
-      <c r="D8" s="41">
-        <v>1700</v>
-      </c>
-      <c r="E8" s="48">
-        <v>272377776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="49">
-        <v>2</v>
-      </c>
-      <c r="D9" s="50">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="51">
-        <v>199882320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64">
-        <v>9</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="52">
-        <v>3</v>
-      </c>
-      <c r="D10" s="53">
-        <v>786</v>
-      </c>
-      <c r="E10" s="54">
-        <v>330461124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="57">
-        <v>4</v>
-      </c>
-      <c r="D11" s="58">
-        <v>786</v>
-      </c>
-      <c r="E11" s="59">
-        <v>330536580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="43">
-        <v>5</v>
-      </c>
-      <c r="D12" s="44">
-        <v>786</v>
-      </c>
-      <c r="E12" s="63">
-        <v>330536580</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="45">
-        <v>6</v>
-      </c>
-      <c r="D13" s="46">
-        <v>786</v>
-      </c>
-      <c r="E13" s="47">
-        <v>330461124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="49">
-        <v>6</v>
-      </c>
-      <c r="D14" s="50">
-        <v>1440</v>
-      </c>
-      <c r="E14" s="51">
-        <v>346744800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
-        <v>14</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="57">
-        <v>7</v>
-      </c>
-      <c r="D15" s="58">
-        <v>786</v>
-      </c>
-      <c r="E15" s="59">
-        <v>330536580</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="64">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="45">
-        <v>12</v>
-      </c>
-      <c r="D16" s="46">
-        <v>786</v>
-      </c>
-      <c r="E16" s="47">
-        <v>330537366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65">
-        <v>16</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="49">
-        <v>12</v>
-      </c>
-      <c r="D17" s="50">
-        <v>2500</v>
-      </c>
-      <c r="E17" s="51">
+      <c r="E17" s="32">
         <v>199882320</v>
       </c>
     </row>
@@ -2311,254 +3313,254 @@
       <c r="C20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="40">
+      <c r="B21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="22">
         <v>786</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="23">
         <v>330439116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="40">
+      <c r="B22" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21">
         <v>2</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="22">
         <v>786</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="23">
         <v>330439116</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="40">
+      <c r="B23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="22">
         <v>786</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="23">
         <v>330461124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="40">
+      <c r="B24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="21">
         <v>4</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="22">
         <v>786</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="23">
         <v>330536580</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="40">
+      <c r="B25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="41">
+      <c r="C25" s="21">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22">
         <v>786</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="23">
         <v>330536580</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="40">
+      <c r="B26" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="21">
         <v>6</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="22">
         <v>786</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="23">
         <v>330461124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="40">
+      <c r="B27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="21">
         <v>7</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="22">
         <v>786</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="23">
         <v>330536580</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="40">
+      <c r="B28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="21">
         <v>8</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="22">
         <v>786</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="23">
         <v>330537366</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="40">
+      <c r="B29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="21">
         <v>12</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="22">
         <v>786</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="23">
         <v>330537366</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="40">
+      <c r="B32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="21">
         <v>1</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="22">
         <v>1440</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="23">
         <v>346744800</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="40">
+      <c r="B33" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="21">
         <v>2</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="22">
         <v>1440</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="23">
         <v>346744800</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="40">
+      <c r="B34" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="21">
         <v>6</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="22">
         <v>1440</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="23">
         <v>346744800</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="40">
+      <c r="B35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="21">
         <v>12</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="22">
         <v>1440</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="23">
         <v>346744800</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="40">
+      <c r="B38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="21">
         <v>1</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="22">
         <v>1700</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="23">
         <v>272377776</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="40">
+      <c r="B39" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="21">
         <v>2</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="22">
         <v>1700</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="23">
         <v>272377776</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="40">
+      <c r="B42" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="21">
         <v>1</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="22">
         <v>2500</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="23">
         <v>199882320</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="40">
+      <c r="B43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="21">
         <v>2</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="22">
         <v>2500</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="23">
         <v>199882320</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="40">
+      <c r="B44" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="21">
         <v>12</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="22">
         <v>2500</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="23">
         <v>199882320</v>
       </c>
     </row>
@@ -2571,135 +3573,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="63"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>786</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="5">
+        <f>SUM(B3:F3)/5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="5">
+        <f>SUM(H3:L3)/5</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="5">
+        <f>SUM(N3:R3)/5</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="5">
+        <f>SUM(T3:X3)/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
         <v>1440</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1440</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19">
-        <v>2060000000</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>786</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>786</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23">
-        <v>1921564146</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="26">
-        <v>2.06</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M6" si="1">SUM(H4:L4)/5</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S6" si="2">SUM(N4:R4)/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
+        <v>1700</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="49"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="49"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="4">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -431,6 +431,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -566,6 +577,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -615,6 +637,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -647,6 +680,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -656,10 +715,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -686,23 +746,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,16 +772,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,7 +792,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -740,37 +800,44 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1525,6 +1592,707 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1E5-4EEB-858B-5C3D0F1624C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCTP mit 1 Steam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66087823.200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69348960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54475555.200000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39976464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1E5-4EEB-858B-5C3D0F1624C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCTP mit 2 Steam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$S$3:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66087823.200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69348960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54475555.200000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39976464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1E5-4EEB-858B-5C3D0F1624C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCTP mit 3 Steam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$3:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66092224.799999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D1E5-4EEB-858B-5C3D0F1624C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="163004488"/>
+        <c:axId val="163003176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="163004488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> Message Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163003176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="163003176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Total Received Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163004488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1605,6 +2373,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
@@ -2108,6 +2916,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2692,6 +4016,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F274389-2939-4A8B-9D99-9FCD8ECB3D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3000,303 +4365,303 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>1</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="28">
         <v>786</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="29">
         <v>330439116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="23">
         <v>1440</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>346744800</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="23">
         <v>1700</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="30">
         <v>272377776</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="37">
         <v>1</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="38">
         <v>2500</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="44">
         <v>199882320</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="28">
         <v>786</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="29">
         <v>330439116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="23">
         <v>1440</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="30">
         <v>346744800</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="23">
         <v>1700</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="30">
         <v>272377776</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="32">
         <v>2500</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="33">
         <v>199882320</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <v>3</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="35">
         <v>786</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="36">
         <v>330461124</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="39">
         <v>4</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="40">
         <v>786</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="41">
         <v>330536580</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="25">
         <v>5</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="26">
         <v>786</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="45">
         <v>330536580</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="27">
         <v>6</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="28">
         <v>786</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>330461124</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="31">
         <v>6</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="32">
         <v>1440</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="33">
         <v>346744800</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="39">
         <v>7</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="40">
         <v>786</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="41">
         <v>330536580</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="27">
         <v>12</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="28">
         <v>786</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>330537366</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="47">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="31">
         <v>12</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="32">
         <v>2500</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="33">
         <v>199882320</v>
       </c>
     </row>
@@ -3313,254 +4678,254 @@
       <c r="C20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="22">
         <v>1</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="23">
         <v>786</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="24">
         <v>330439116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="22">
         <v>2</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="23">
         <v>786</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="24">
         <v>330439116</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="22">
         <v>3</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="23">
         <v>786</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="24">
         <v>330461124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="22">
         <v>4</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="23">
         <v>786</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="24">
         <v>330536580</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="22">
         <v>5</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="23">
         <v>786</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="24">
         <v>330536580</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="22">
         <v>6</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="23">
         <v>786</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="24">
         <v>330461124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="22">
         <v>7</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="23">
         <v>786</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="24">
         <v>330536580</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="22">
         <v>8</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="23">
         <v>786</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="24">
         <v>330537366</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="22">
         <v>12</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="23">
         <v>786</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="24">
         <v>330537366</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="22">
         <v>1</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="23">
         <v>1440</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="24">
         <v>346744800</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="22">
         <v>2</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="23">
         <v>1440</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="24">
         <v>346744800</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="22">
         <v>6</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="23">
         <v>1440</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="24">
         <v>346744800</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="22">
         <v>12</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="23">
         <v>1440</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="24">
         <v>346744800</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="22">
         <v>1</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="23">
         <v>1700</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="24">
         <v>272377776</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="22">
         <v>2</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="23">
         <v>1700</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="24">
         <v>272377776</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="22">
         <v>1</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="23">
         <v>2500</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="24">
         <v>199882320</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="22">
         <v>2</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="23">
         <v>2500</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="24">
         <v>199882320</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="22">
         <v>12</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="23">
         <v>2500</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="24">
         <v>199882320</v>
       </c>
     </row>
@@ -3575,298 +4940,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="61" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="61" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="61" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="63"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="66"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="58" t="s">
+      <c r="X2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="53">
         <v>786</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="6">
         <f>SUM(B3:F3)/5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="5">
+      <c r="H3" s="5">
+        <v>330439116</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="69">
         <f>SUM(H3:L3)/5</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="5">
+        <v>66087823.200000003</v>
+      </c>
+      <c r="N3" s="5">
+        <v>330439116</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="6">
         <f>SUM(N3:R3)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="5">
+        <v>66087823.200000003</v>
+      </c>
+      <c r="T3" s="5">
+        <v>330461124</v>
+      </c>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="6">
         <f>SUM(T3:X3)/5</f>
-        <v>0</v>
+        <v>66092224.799999997</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="55">
         <v>1440</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="59"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="1">
+      <c r="H4" s="4">
+        <v>346744800</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="51">
+        <v>0</v>
+      </c>
+      <c r="M4" s="60">
         <f t="shared" ref="M4:M6" si="1">SUM(H4:L4)/5</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="59"/>
+        <v>69348960</v>
+      </c>
+      <c r="N4" s="4">
+        <v>346744800</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="62"/>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S6" si="2">SUM(N4:R4)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="59"/>
+        <v>69348960</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="62"/>
       <c r="Y4" s="1">
         <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="56">
         <v>1700</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="1">
+      <c r="H5" s="50">
+        <v>272377776</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="51">
+        <v>0</v>
+      </c>
+      <c r="M5" s="60">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="48"/>
+        <v>54475555.200000003</v>
+      </c>
+      <c r="N5" s="50">
+        <v>272377776</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="49"/>
       <c r="S5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="48"/>
+        <v>54475555.200000003</v>
+      </c>
+      <c r="T5" s="50"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="49"/>
       <c r="Y5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52">
+      <c r="A6" s="54">
         <v>2500</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="14">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="14">
+      <c r="H6" s="2">
+        <v>199882320</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="70">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="14">
+        <v>39976464</v>
+      </c>
+      <c r="N6" s="2">
+        <v>199882320</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>39976464</v>
       </c>
       <c r="T6" s="2"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="14">
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3877,5 +5292,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -715,14 +715,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -739,7 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,10 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,24 +809,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1660,7 +1659,7 @@
                   <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1440</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1700</c:v>
@@ -1675,16 +1674,16 @@
             <c:numRef>
               <c:f>Tabelle1!$G$3:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5743459.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>66098984.399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5743280</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1747,7 +1746,7 @@
                   <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1440</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1700</c:v>
@@ -1762,7 +1761,7 @@
             <c:numRef>
               <c:f>Tabelle1!$M$3:$M$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>66087823.200000003</c:v>
@@ -1834,7 +1833,7 @@
                   <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1440</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1700</c:v>
@@ -1849,7 +1848,7 @@
             <c:numRef>
               <c:f>Tabelle1!$S$3:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>66087823.200000003</c:v>
@@ -1921,7 +1920,7 @@
                   <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1440</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1700</c:v>
@@ -1936,10 +1935,10 @@
             <c:numRef>
               <c:f>Tabelle1!$Y$3:$Y$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66092224.799999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2017,7 +2016,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Message Size</a:t>
+                  <a:t> Message Size (Bytes)</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -2169,7 +2168,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4029,15 +4028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>242409</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4370,298 +4369,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="21">
         <v>786</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="22">
         <v>330439116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="16">
         <v>1440</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="23">
         <v>346744800</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="16">
         <v>1700</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="23">
         <v>272377776</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="31">
         <v>2500</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="37">
         <v>199882320</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="21">
         <v>786</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="22">
         <v>330439116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="16">
         <v>1440</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="23">
         <v>346744800</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="16">
         <v>1700</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="23">
         <v>272377776</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="25">
         <v>2500</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="26">
         <v>199882320</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="28">
         <v>786</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="29">
         <v>330461124</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="32">
         <v>4</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="33">
         <v>786</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="34">
         <v>330536580</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="19">
         <v>786</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="38">
         <v>330536580</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="20">
         <v>6</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="21">
         <v>786</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <v>330461124</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+      <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="24">
         <v>6</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="25">
         <v>1440</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="26">
         <v>346744800</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+      <c r="A15" s="39">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="32">
         <v>7</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="33">
         <v>786</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="34">
         <v>330536580</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="39">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="20">
         <v>12</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="21">
         <v>786</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="22">
         <v>330537366</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="40">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="24">
         <v>12</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="25">
         <v>2500</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="26">
         <v>199882320</v>
       </c>
     </row>
@@ -4678,254 +4677,254 @@
       <c r="C20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="16">
         <v>786</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="17">
         <v>330439116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="15">
         <v>2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="16">
         <v>786</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="17">
         <v>330439116</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="15">
         <v>3</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="16">
         <v>786</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="17">
         <v>330461124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="15">
         <v>4</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="16">
         <v>786</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="17">
         <v>330536580</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="15">
         <v>5</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="16">
         <v>786</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="17">
         <v>330536580</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="15">
         <v>6</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="16">
         <v>786</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="17">
         <v>330461124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="15">
         <v>7</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="16">
         <v>786</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="17">
         <v>330536580</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="15">
         <v>8</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="16">
         <v>786</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="17">
         <v>330537366</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="15">
         <v>12</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="16">
         <v>786</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="17">
         <v>330537366</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="16">
         <v>1440</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="17">
         <v>346744800</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="15">
         <v>2</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="16">
         <v>1440</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="17">
         <v>346744800</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="15">
         <v>6</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="16">
         <v>1440</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="17">
         <v>346744800</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="15">
         <v>12</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="16">
         <v>1440</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="17">
         <v>346744800</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="15">
         <v>1</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="16">
         <v>1700</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="17">
         <v>272377776</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="16">
         <v>1700</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="17">
         <v>272377776</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="16">
         <v>2500</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="17">
         <v>199882320</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="15">
         <v>2</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="16">
         <v>2500</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="17">
         <v>199882320</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="15">
         <v>12</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="16">
         <v>2500</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="17">
         <v>199882320</v>
       </c>
     </row>
@@ -4940,348 +4939,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="64" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="64" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="64" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="66"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="58" t="s">
+      <c r="U2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="58" t="s">
+      <c r="V2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="W2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="59" t="s">
+      <c r="Y2" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="42">
         <v>786</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="6">
+      <c r="B3" s="56">
+        <v>28717296</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="22">
         <f>SUM(B3:F3)/5</f>
+        <v>5743459.2000000002</v>
+      </c>
+      <c r="H3" s="56">
+        <v>330439116</v>
+      </c>
+      <c r="I3" s="57">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <v>330439116</v>
-      </c>
-      <c r="I3" s="28">
+      <c r="J3" s="57">
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="K3" s="57">
         <v>0</v>
       </c>
-      <c r="K3" s="28">
+      <c r="L3" s="22">
         <v>0</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="69">
+      <c r="M3" s="59">
         <f>SUM(H3:L3)/5</f>
         <v>66087823.200000003</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="56">
         <v>330439116</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="6">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="22">
         <f>SUM(N3:R3)/5</f>
         <v>66087823.200000003</v>
       </c>
-      <c r="T3" s="5">
-        <v>330461124</v>
-      </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="6">
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="22">
         <f>SUM(T3:X3)/5</f>
-        <v>66092224.799999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
-        <v>1440</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="44">
+        <v>1438</v>
+      </c>
+      <c r="B4" s="60">
+        <v>330494922</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="62"/>
-      <c r="G4" s="1">
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
+        <v>66098984.399999999</v>
+      </c>
+      <c r="H4" s="60">
+        <v>346744800</v>
+      </c>
+      <c r="I4" s="17">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>346744800</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="J4" s="17">
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="17">
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="23">
         <v>0</v>
       </c>
-      <c r="L4" s="51">
-        <v>0</v>
-      </c>
-      <c r="M4" s="60">
+      <c r="M4" s="63">
         <f t="shared" ref="M4:M6" si="1">SUM(H4:L4)/5</f>
         <v>69348960</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="60">
         <v>346744800</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
       <c r="R4" s="62"/>
-      <c r="S4" s="1">
+      <c r="S4" s="38">
         <f t="shared" ref="S4:S6" si="2">SUM(N4:R4)/5</f>
         <v>69348960</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
       <c r="X4" s="62"/>
-      <c r="Y4" s="1">
+      <c r="Y4" s="38">
         <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="45">
         <v>1700</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="1">
+      <c r="B5" s="64">
+        <v>28716400</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="38">
+        <f t="shared" si="0"/>
+        <v>5743280</v>
+      </c>
+      <c r="H5" s="64">
+        <v>272377776</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="63">
+        <f t="shared" si="1"/>
+        <v>54475555.200000003</v>
+      </c>
+      <c r="N5" s="64">
+        <v>272377776</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="38">
+        <f t="shared" si="2"/>
+        <v>54475555.200000003</v>
+      </c>
+      <c r="T5" s="64"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="50">
-        <v>272377776</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="H6" s="66">
+        <v>199882320</v>
+      </c>
+      <c r="I6" s="67">
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J6" s="67">
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K6" s="67">
         <v>0</v>
       </c>
-      <c r="L5" s="51">
-        <v>0</v>
-      </c>
-      <c r="M5" s="60">
-        <f t="shared" si="1"/>
-        <v>54475555.200000003</v>
-      </c>
-      <c r="N5" s="50">
-        <v>272377776</v>
-      </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="1">
-        <f t="shared" si="2"/>
-        <v>54475555.200000003</v>
-      </c>
-      <c r="T5" s="50"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
-        <v>2500</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>199882320</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L6" s="26">
         <v>0</v>
       </c>
       <c r="M6" s="70">
         <f t="shared" si="1"/>
         <v>39976464</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="66">
         <v>199882320</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="15">
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="69">
         <f t="shared" si="2"/>
         <v>39976464</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="15">
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="1" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
   <si>
     <t>outboundStreams</t>
   </si>
@@ -74,6 +74,12 @@
   <si>
     <t>SCTP mit 3 Steam</t>
   </si>
+  <si>
+    <t>SCTP mit 12 Steams</t>
+  </si>
+  <si>
+    <t>SCTP mit 50 Steams</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +138,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -384,34 +408,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -431,17 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -532,19 +517,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,38 +556,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -625,13 +569,57 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -641,71 +629,23 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -715,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -733,29 +673,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,17 +705,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,7 +725,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,7 +733,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -802,41 +742,138 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -856,742 +893,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Durchsatz von SCTP bei maxMessageSize 786B</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle2!$C$21:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle2!$E$21:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>330439116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>330439116</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>330461124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>330536580</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>330536580</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>330461124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>330536580</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>330537366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>330537366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD02-4AB1-BB3B-8EDB9F296777}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="499147000"/>
-        <c:axId val="499145032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="499147000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499145032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="499145032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499147000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Durchsatz von SCTP bei unterschidlichen Packetgrößen</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle2!$D$6:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>786</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle2!$E$6:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>330439116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>346744800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>272377776</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>199882320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C15-4738-9067-7FA2305B7631}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="661858128"/>
-        <c:axId val="661855832"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="661858128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="661855832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="661855832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="661858128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1665,7 +966,7 @@
                   <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,16 +978,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5743459.2000000002</c:v>
+                  <c:v>28717296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66098984.399999999</c:v>
+                  <c:v>34031708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5743280</c:v>
+                  <c:v>28716400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28714932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,7 +1053,7 @@
                   <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,16 +1065,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66087823.200000003</c:v>
+                  <c:v>330439116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69348960</c:v>
+                  <c:v>346673040</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54475555.200000003</c:v>
+                  <c:v>272377776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39976464</c:v>
+                  <c:v>191624796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,7 +1140,7 @@
                   <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,16 +1152,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>66087823.200000003</c:v>
+                  <c:v>330439116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69348960</c:v>
+                  <c:v>346673040</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54475555.200000003</c:v>
+                  <c:v>272377776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39976464</c:v>
+                  <c:v>191624796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,7 +1227,7 @@
                   <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,16 +1239,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>330461124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>346673040</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>272377776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>191624796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,6 +1257,180 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D1E5-4EEB-858B-5C3D0F1624C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCTP mit 12 Steams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AE$3:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>330438330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346673040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272377776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191624796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-50B7-4A18-9E29-9FEA14184D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCTP mit 50 Steams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AK$3:$AK$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>330494924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346673042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272377776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191624796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-50B7-4A18-9E29-9FEA14184D5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2292,6 +1767,742 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Durchsatz von SCTP bei maxMessageSize 786B</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$C$21:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$E$21:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>330439116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330439116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330461124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330536580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330536580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330461124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330536580</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330537366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>330537366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD02-4AB1-BB3B-8EDB9F296777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="499147000"/>
+        <c:axId val="499145032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="499147000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499145032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="499145032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499147000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Durchsatz von SCTP bei unterschidlichen Packetgrößen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>330439116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346744800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272377776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199882320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C15-4738-9067-7FA2305B7631}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="661858128"/>
+        <c:axId val="661855832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="661858128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661855832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661855832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661858128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2413,7 +2624,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2424,7 +2635,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2437,11 +2648,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2454,7 +2665,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2470,7 +2681,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2514,20 +2725,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2536,13 +2747,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2554,31 +2765,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2618,22 +2828,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2680,8 +2891,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2732,8 +2949,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2771,20 +2988,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2797,17 +3014,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2839,7 +3045,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2848,13 +3054,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2875,60 +3082,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2950,13 +3121,67 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2972,7 +3197,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3016,6 +3241,508 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -3430,523 +4157,48 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242409</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F274389-2939-4A8B-9D99-9FCD8ECB3D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4015,47 +4267,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>242409</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F274389-2939-4A8B-9D99-9FCD8ECB3D03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4360,11 +4571,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
+  <dimension ref="A1:AK13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="37" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="94"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK2" s="98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>786</v>
+      </c>
+      <c r="B3" s="131">
+        <v>28717296</v>
+      </c>
+      <c r="C3" s="132">
+        <v>28717296</v>
+      </c>
+      <c r="D3" s="132">
+        <v>28717296</v>
+      </c>
+      <c r="E3" s="132">
+        <v>28717296</v>
+      </c>
+      <c r="F3" s="132">
+        <v>28717296</v>
+      </c>
+      <c r="G3" s="133">
+        <f>SUM(B3:F3)/5</f>
+        <v>28717296</v>
+      </c>
+      <c r="H3" s="52">
+        <v>330439116</v>
+      </c>
+      <c r="I3" s="53">
+        <v>330439116</v>
+      </c>
+      <c r="J3" s="53">
+        <v>330439116</v>
+      </c>
+      <c r="K3" s="53">
+        <v>330439116</v>
+      </c>
+      <c r="L3" s="53">
+        <v>330439116</v>
+      </c>
+      <c r="M3" s="54">
+        <f>SUM(H3:L3)/5</f>
+        <v>330439116</v>
+      </c>
+      <c r="N3" s="68">
+        <v>330439116</v>
+      </c>
+      <c r="O3" s="69">
+        <v>330439116</v>
+      </c>
+      <c r="P3" s="69">
+        <v>330439116</v>
+      </c>
+      <c r="Q3" s="69">
+        <v>330439116</v>
+      </c>
+      <c r="R3" s="69">
+        <v>330439116</v>
+      </c>
+      <c r="S3" s="70">
+        <f>SUM(N3:R3)/5</f>
+        <v>330439116</v>
+      </c>
+      <c r="T3" s="83">
+        <v>330461124</v>
+      </c>
+      <c r="U3" s="84">
+        <v>330461124</v>
+      </c>
+      <c r="V3" s="84">
+        <v>330461124</v>
+      </c>
+      <c r="W3" s="84">
+        <v>330461124</v>
+      </c>
+      <c r="X3" s="84">
+        <v>330461124</v>
+      </c>
+      <c r="Y3" s="85">
+        <f>SUM(T3:X3)/5</f>
+        <v>330461124</v>
+      </c>
+      <c r="Z3" s="115">
+        <v>330438330</v>
+      </c>
+      <c r="AA3" s="116">
+        <v>330438330</v>
+      </c>
+      <c r="AB3" s="116">
+        <v>330438330</v>
+      </c>
+      <c r="AC3" s="116">
+        <v>330438330</v>
+      </c>
+      <c r="AD3" s="116">
+        <v>330438330</v>
+      </c>
+      <c r="AE3" s="117">
+        <f>SUM(Z3:AD3)/5</f>
+        <v>330438330</v>
+      </c>
+      <c r="AF3" s="99">
+        <v>330494922</v>
+      </c>
+      <c r="AG3" s="100">
+        <v>330494923</v>
+      </c>
+      <c r="AH3" s="100">
+        <v>330494924</v>
+      </c>
+      <c r="AI3" s="100">
+        <v>330494925</v>
+      </c>
+      <c r="AJ3" s="100">
+        <v>330494926</v>
+      </c>
+      <c r="AK3" s="101">
+        <f>SUM(AF3:AJ3)/5</f>
+        <v>330494924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>1438</v>
+      </c>
+      <c r="B4" s="134">
+        <v>34031708</v>
+      </c>
+      <c r="C4" s="135">
+        <v>34031708</v>
+      </c>
+      <c r="D4" s="135">
+        <v>34031708</v>
+      </c>
+      <c r="E4" s="135">
+        <v>34031708</v>
+      </c>
+      <c r="F4" s="135">
+        <v>34031708</v>
+      </c>
+      <c r="G4" s="136">
+        <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
+        <v>34031708</v>
+      </c>
+      <c r="H4" s="55">
+        <v>346673040</v>
+      </c>
+      <c r="I4" s="56">
+        <v>346673040</v>
+      </c>
+      <c r="J4" s="56">
+        <v>346673040</v>
+      </c>
+      <c r="K4" s="56">
+        <v>346673040</v>
+      </c>
+      <c r="L4" s="56">
+        <v>346673040</v>
+      </c>
+      <c r="M4" s="57">
+        <f t="shared" ref="M4:M6" si="1">SUM(H4:L4)/5</f>
+        <v>346673040</v>
+      </c>
+      <c r="N4" s="71">
+        <v>346673040</v>
+      </c>
+      <c r="O4" s="72">
+        <v>346673040</v>
+      </c>
+      <c r="P4" s="72">
+        <v>346673040</v>
+      </c>
+      <c r="Q4" s="72">
+        <v>346673040</v>
+      </c>
+      <c r="R4" s="72">
+        <v>346673040</v>
+      </c>
+      <c r="S4" s="73">
+        <f t="shared" ref="S4:S6" si="2">SUM(N4:R4)/5</f>
+        <v>346673040</v>
+      </c>
+      <c r="T4" s="86">
+        <v>346673040</v>
+      </c>
+      <c r="U4" s="87">
+        <v>346673040</v>
+      </c>
+      <c r="V4" s="87">
+        <v>346673040</v>
+      </c>
+      <c r="W4" s="87">
+        <v>346673040</v>
+      </c>
+      <c r="X4" s="87">
+        <v>346673040</v>
+      </c>
+      <c r="Y4" s="88">
+        <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
+        <v>346673040</v>
+      </c>
+      <c r="Z4" s="118">
+        <v>346673040</v>
+      </c>
+      <c r="AA4" s="119">
+        <v>346673040</v>
+      </c>
+      <c r="AB4" s="119">
+        <v>346673040</v>
+      </c>
+      <c r="AC4" s="119">
+        <v>346673040</v>
+      </c>
+      <c r="AD4" s="119">
+        <v>346673040</v>
+      </c>
+      <c r="AE4" s="120">
+        <f t="shared" ref="AE4:AE6" si="4">SUM(Z4:AD4)/5</f>
+        <v>346673040</v>
+      </c>
+      <c r="AF4" s="102">
+        <v>346673040</v>
+      </c>
+      <c r="AG4" s="103">
+        <v>346673041</v>
+      </c>
+      <c r="AH4" s="103">
+        <v>346673042</v>
+      </c>
+      <c r="AI4" s="103">
+        <v>346673043</v>
+      </c>
+      <c r="AJ4" s="103">
+        <v>346673044</v>
+      </c>
+      <c r="AK4" s="104">
+        <f>SUM(AF4:AJ4)/5</f>
+        <v>346673042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>1700</v>
+      </c>
+      <c r="B5" s="134">
+        <v>28716400</v>
+      </c>
+      <c r="C5" s="135">
+        <v>28716400</v>
+      </c>
+      <c r="D5" s="135">
+        <v>28716400</v>
+      </c>
+      <c r="E5" s="135">
+        <v>28716400</v>
+      </c>
+      <c r="F5" s="135">
+        <v>28716400</v>
+      </c>
+      <c r="G5" s="136">
+        <f t="shared" si="0"/>
+        <v>28716400</v>
+      </c>
+      <c r="H5" s="55">
+        <v>272377776</v>
+      </c>
+      <c r="I5" s="56">
+        <v>272377776</v>
+      </c>
+      <c r="J5" s="56">
+        <v>272377776</v>
+      </c>
+      <c r="K5" s="56">
+        <v>272377776</v>
+      </c>
+      <c r="L5" s="56">
+        <v>272377776</v>
+      </c>
+      <c r="M5" s="57">
+        <f t="shared" si="1"/>
+        <v>272377776</v>
+      </c>
+      <c r="N5" s="71">
+        <v>272377776</v>
+      </c>
+      <c r="O5" s="72">
+        <v>272377776</v>
+      </c>
+      <c r="P5" s="72">
+        <v>272377776</v>
+      </c>
+      <c r="Q5" s="72">
+        <v>272377776</v>
+      </c>
+      <c r="R5" s="72">
+        <v>272377776</v>
+      </c>
+      <c r="S5" s="73">
+        <f t="shared" si="2"/>
+        <v>272377776</v>
+      </c>
+      <c r="T5" s="86">
+        <v>272377776</v>
+      </c>
+      <c r="U5" s="87">
+        <v>272377776</v>
+      </c>
+      <c r="V5" s="87">
+        <v>272377776</v>
+      </c>
+      <c r="W5" s="87">
+        <v>272377776</v>
+      </c>
+      <c r="X5" s="87">
+        <v>272377776</v>
+      </c>
+      <c r="Y5" s="88">
+        <f t="shared" si="3"/>
+        <v>272377776</v>
+      </c>
+      <c r="Z5" s="118">
+        <v>272377776</v>
+      </c>
+      <c r="AA5" s="119">
+        <v>272377776</v>
+      </c>
+      <c r="AB5" s="119">
+        <v>272377776</v>
+      </c>
+      <c r="AC5" s="119">
+        <v>272377776</v>
+      </c>
+      <c r="AD5" s="119">
+        <v>272377776</v>
+      </c>
+      <c r="AE5" s="120">
+        <f t="shared" si="4"/>
+        <v>272377776</v>
+      </c>
+      <c r="AF5" s="102">
+        <v>272377776</v>
+      </c>
+      <c r="AG5" s="103">
+        <v>272377776</v>
+      </c>
+      <c r="AH5" s="103">
+        <v>272377776</v>
+      </c>
+      <c r="AI5" s="103">
+        <v>272377776</v>
+      </c>
+      <c r="AJ5" s="103">
+        <v>272377776</v>
+      </c>
+      <c r="AK5" s="104">
+        <f t="shared" ref="AK5:AK6" si="5">SUM(AF5:AJ5)/5</f>
+        <v>272377776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <v>2538</v>
+      </c>
+      <c r="B6" s="137">
+        <v>28714932</v>
+      </c>
+      <c r="C6" s="138">
+        <v>28714932</v>
+      </c>
+      <c r="D6" s="138">
+        <v>28714932</v>
+      </c>
+      <c r="E6" s="138">
+        <v>28714932</v>
+      </c>
+      <c r="F6" s="138">
+        <v>28714932</v>
+      </c>
+      <c r="G6" s="139">
+        <f t="shared" si="0"/>
+        <v>28714932</v>
+      </c>
+      <c r="H6" s="58">
+        <v>191624796</v>
+      </c>
+      <c r="I6" s="59">
+        <v>191624796</v>
+      </c>
+      <c r="J6" s="59">
+        <v>191624796</v>
+      </c>
+      <c r="K6" s="59">
+        <v>191624796</v>
+      </c>
+      <c r="L6" s="59">
+        <v>191624796</v>
+      </c>
+      <c r="M6" s="60">
+        <f t="shared" si="1"/>
+        <v>191624796</v>
+      </c>
+      <c r="N6" s="74">
+        <v>191624796</v>
+      </c>
+      <c r="O6" s="75">
+        <v>191624796</v>
+      </c>
+      <c r="P6" s="75">
+        <v>191624796</v>
+      </c>
+      <c r="Q6" s="75">
+        <v>191624796</v>
+      </c>
+      <c r="R6" s="75">
+        <v>191624796</v>
+      </c>
+      <c r="S6" s="76">
+        <f t="shared" si="2"/>
+        <v>191624796</v>
+      </c>
+      <c r="T6" s="89">
+        <v>191624796</v>
+      </c>
+      <c r="U6" s="90">
+        <v>191624796</v>
+      </c>
+      <c r="V6" s="90">
+        <v>191624796</v>
+      </c>
+      <c r="W6" s="90">
+        <v>191624796</v>
+      </c>
+      <c r="X6" s="90">
+        <v>191624796</v>
+      </c>
+      <c r="Y6" s="91">
+        <f t="shared" si="3"/>
+        <v>191624796</v>
+      </c>
+      <c r="Z6" s="121">
+        <v>191624796</v>
+      </c>
+      <c r="AA6" s="122">
+        <v>191624796</v>
+      </c>
+      <c r="AB6" s="122">
+        <v>191624796</v>
+      </c>
+      <c r="AC6" s="122">
+        <v>191624796</v>
+      </c>
+      <c r="AD6" s="122">
+        <v>191624796</v>
+      </c>
+      <c r="AE6" s="123">
+        <f t="shared" si="4"/>
+        <v>191624796</v>
+      </c>
+      <c r="AF6" s="105">
+        <v>191624796</v>
+      </c>
+      <c r="AG6" s="106">
+        <v>191624796</v>
+      </c>
+      <c r="AH6" s="106">
+        <v>191624796</v>
+      </c>
+      <c r="AI6" s="106">
+        <v>191624796</v>
+      </c>
+      <c r="AJ6" s="106">
+        <v>191624796</v>
+      </c>
+      <c r="AK6" s="107">
+        <f t="shared" si="5"/>
+        <v>191624796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="T1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,376 +5821,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
-  <dimension ref="A1:Y13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="50"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
-        <v>786</v>
-      </c>
-      <c r="B3" s="56">
-        <v>28717296</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="22">
-        <f>SUM(B3:F3)/5</f>
-        <v>5743459.2000000002</v>
-      </c>
-      <c r="H3" s="56">
-        <v>330439116</v>
-      </c>
-      <c r="I3" s="57">
-        <v>0</v>
-      </c>
-      <c r="J3" s="57">
-        <v>0</v>
-      </c>
-      <c r="K3" s="57">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="59">
-        <f>SUM(H3:L3)/5</f>
-        <v>66087823.200000003</v>
-      </c>
-      <c r="N3" s="56">
-        <v>330439116</v>
-      </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="22">
-        <f>SUM(N3:R3)/5</f>
-        <v>66087823.200000003</v>
-      </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="22">
-        <f>SUM(T3:X3)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
-        <v>1438</v>
-      </c>
-      <c r="B4" s="60">
-        <v>330494922</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="38">
-        <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
-        <v>66098984.399999999</v>
-      </c>
-      <c r="H4" s="60">
-        <v>346744800</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="63">
-        <f t="shared" ref="M4:M6" si="1">SUM(H4:L4)/5</f>
-        <v>69348960</v>
-      </c>
-      <c r="N4" s="60">
-        <v>346744800</v>
-      </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="38">
-        <f t="shared" ref="S4:S6" si="2">SUM(N4:R4)/5</f>
-        <v>69348960</v>
-      </c>
-      <c r="T4" s="60"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="38">
-        <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <v>1700</v>
-      </c>
-      <c r="B5" s="64">
-        <v>28716400</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="38">
-        <f t="shared" si="0"/>
-        <v>5743280</v>
-      </c>
-      <c r="H5" s="64">
-        <v>272377776</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
-        <v>0</v>
-      </c>
-      <c r="M5" s="63">
-        <f t="shared" si="1"/>
-        <v>54475555.200000003</v>
-      </c>
-      <c r="N5" s="64">
-        <v>272377776</v>
-      </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="38">
-        <f t="shared" si="2"/>
-        <v>54475555.200000003</v>
-      </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
-        <v>2500</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="66">
-        <v>199882320</v>
-      </c>
-      <c r="I6" s="67">
-        <v>0</v>
-      </c>
-      <c r="J6" s="67">
-        <v>0</v>
-      </c>
-      <c r="K6" s="67">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0</v>
-      </c>
-      <c r="M6" s="70">
-        <f t="shared" si="1"/>
-        <v>39976464</v>
-      </c>
-      <c r="N6" s="66">
-        <v>199882320</v>
-      </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="69">
-        <f t="shared" si="2"/>
-        <v>39976464</v>
-      </c>
-      <c r="T6" s="66"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -746,12 +746,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -765,15 +759,6 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -787,15 +772,6 @@
     <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -808,15 +784,6 @@
     <xf numFmtId="43" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -830,15 +797,6 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -852,15 +810,6 @@
     <xf numFmtId="43" fontId="0" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -874,6 +823,57 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1782,6 +1782,318 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28717296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34031708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28716400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28714932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CE0-48EA-9C2C-8D0A534830A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="485853920"/>
+        <c:axId val="485858512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="485853920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485858512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485858512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485853920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2165,7 +2477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2623,6 +2935,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3140,6 +3492,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3641,7 +4509,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4190,6 +5058,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6AC797-7F32-4B7E-916E-BA059CD3D82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4574,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4588,165 +5492,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
       <c r="M1" s="13"/>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="77" t="s">
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="108" t="s">
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="92" t="s">
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="94"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="125"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="N2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="T2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="81" t="s">
+      <c r="U2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="81" t="s">
+      <c r="V2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="81" t="s">
+      <c r="W2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="111" t="s">
+      <c r="Z2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="112" t="s">
+      <c r="AA2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="112" t="s">
+      <c r="AB2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="112" t="s">
+      <c r="AC2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="113" t="s">
+      <c r="AD2" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="114" t="s">
+      <c r="AE2" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="95" t="s">
+      <c r="AF2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="96" t="s">
+      <c r="AG2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="96" t="s">
+      <c r="AH2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="96" t="s">
+      <c r="AI2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="97" t="s">
+      <c r="AJ2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="98" t="s">
+      <c r="AK2" s="87" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4754,117 +5658,117 @@
       <c r="A3" s="42">
         <v>786</v>
       </c>
-      <c r="B3" s="131">
+      <c r="B3" s="114">
         <v>28717296</v>
       </c>
-      <c r="C3" s="132">
+      <c r="C3" s="115">
         <v>28717296</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="115">
         <v>28717296</v>
       </c>
-      <c r="E3" s="132">
+      <c r="E3" s="115">
         <v>28717296</v>
       </c>
-      <c r="F3" s="132">
+      <c r="F3" s="115">
         <v>28717296</v>
       </c>
-      <c r="G3" s="133">
+      <c r="G3" s="116">
         <f>SUM(B3:F3)/5</f>
         <v>28717296</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="50">
         <v>330439116</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="51">
         <v>330439116</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="51">
         <v>330439116</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="51">
         <v>330439116</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <v>330439116</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="52">
         <f>SUM(H3:L3)/5</f>
         <v>330439116</v>
       </c>
-      <c r="N3" s="68">
+      <c r="N3" s="63">
         <v>330439116</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="64">
         <v>330439116</v>
       </c>
-      <c r="P3" s="69">
+      <c r="P3" s="64">
         <v>330439116</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="64">
         <v>330439116</v>
       </c>
-      <c r="R3" s="69">
+      <c r="R3" s="64">
         <v>330439116</v>
       </c>
-      <c r="S3" s="70">
+      <c r="S3" s="65">
         <f>SUM(N3:R3)/5</f>
         <v>330439116</v>
       </c>
-      <c r="T3" s="83">
+      <c r="T3" s="75">
         <v>330461124</v>
       </c>
-      <c r="U3" s="84">
+      <c r="U3" s="76">
         <v>330461124</v>
       </c>
-      <c r="V3" s="84">
+      <c r="V3" s="76">
         <v>330461124</v>
       </c>
-      <c r="W3" s="84">
+      <c r="W3" s="76">
         <v>330461124</v>
       </c>
-      <c r="X3" s="84">
+      <c r="X3" s="76">
         <v>330461124</v>
       </c>
-      <c r="Y3" s="85">
+      <c r="Y3" s="77">
         <f>SUM(T3:X3)/5</f>
         <v>330461124</v>
       </c>
-      <c r="Z3" s="115">
+      <c r="Z3" s="101">
         <v>330438330</v>
       </c>
-      <c r="AA3" s="116">
+      <c r="AA3" s="102">
         <v>330438330</v>
       </c>
-      <c r="AB3" s="116">
+      <c r="AB3" s="102">
         <v>330438330</v>
       </c>
-      <c r="AC3" s="116">
+      <c r="AC3" s="102">
         <v>330438330</v>
       </c>
-      <c r="AD3" s="116">
+      <c r="AD3" s="102">
         <v>330438330</v>
       </c>
-      <c r="AE3" s="117">
+      <c r="AE3" s="103">
         <f>SUM(Z3:AD3)/5</f>
         <v>330438330</v>
       </c>
-      <c r="AF3" s="99">
+      <c r="AF3" s="88">
         <v>330494922</v>
       </c>
-      <c r="AG3" s="100">
+      <c r="AG3" s="89">
         <v>330494923</v>
       </c>
-      <c r="AH3" s="100">
+      <c r="AH3" s="89">
         <v>330494924</v>
       </c>
-      <c r="AI3" s="100">
+      <c r="AI3" s="89">
         <v>330494925</v>
       </c>
-      <c r="AJ3" s="100">
+      <c r="AJ3" s="89">
         <v>330494926</v>
       </c>
-      <c r="AK3" s="101">
+      <c r="AK3" s="90">
         <f>SUM(AF3:AJ3)/5</f>
         <v>330494924</v>
       </c>
@@ -4873,117 +5777,117 @@
       <c r="A4" s="43">
         <v>1438</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="117">
         <v>34031708</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="118">
         <v>34031708</v>
       </c>
-      <c r="D4" s="135">
+      <c r="D4" s="118">
         <v>34031708</v>
       </c>
-      <c r="E4" s="135">
+      <c r="E4" s="118">
         <v>34031708</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="118">
         <v>34031708</v>
       </c>
-      <c r="G4" s="136">
+      <c r="G4" s="119">
         <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
         <v>34031708</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <v>346673040</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="54">
         <v>346673040</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="54">
         <v>346673040</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="54">
         <v>346673040</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="54">
         <v>346673040</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="55">
         <f t="shared" ref="M4:M6" si="1">SUM(H4:L4)/5</f>
         <v>346673040</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="66">
         <v>346673040</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="67">
         <v>346673040</v>
       </c>
-      <c r="P4" s="72">
+      <c r="P4" s="67">
         <v>346673040</v>
       </c>
-      <c r="Q4" s="72">
+      <c r="Q4" s="67">
         <v>346673040</v>
       </c>
-      <c r="R4" s="72">
+      <c r="R4" s="67">
         <v>346673040</v>
       </c>
-      <c r="S4" s="73">
+      <c r="S4" s="68">
         <f t="shared" ref="S4:S6" si="2">SUM(N4:R4)/5</f>
         <v>346673040</v>
       </c>
-      <c r="T4" s="86">
+      <c r="T4" s="78">
         <v>346673040</v>
       </c>
-      <c r="U4" s="87">
+      <c r="U4" s="79">
         <v>346673040</v>
       </c>
-      <c r="V4" s="87">
+      <c r="V4" s="79">
         <v>346673040</v>
       </c>
-      <c r="W4" s="87">
+      <c r="W4" s="79">
         <v>346673040</v>
       </c>
-      <c r="X4" s="87">
+      <c r="X4" s="79">
         <v>346673040</v>
       </c>
-      <c r="Y4" s="88">
+      <c r="Y4" s="80">
         <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
         <v>346673040</v>
       </c>
-      <c r="Z4" s="118">
+      <c r="Z4" s="104">
         <v>346673040</v>
       </c>
-      <c r="AA4" s="119">
+      <c r="AA4" s="105">
         <v>346673040</v>
       </c>
-      <c r="AB4" s="119">
+      <c r="AB4" s="105">
         <v>346673040</v>
       </c>
-      <c r="AC4" s="119">
+      <c r="AC4" s="105">
         <v>346673040</v>
       </c>
-      <c r="AD4" s="119">
+      <c r="AD4" s="105">
         <v>346673040</v>
       </c>
-      <c r="AE4" s="120">
+      <c r="AE4" s="106">
         <f t="shared" ref="AE4:AE6" si="4">SUM(Z4:AD4)/5</f>
         <v>346673040</v>
       </c>
-      <c r="AF4" s="102">
+      <c r="AF4" s="91">
         <v>346673040</v>
       </c>
-      <c r="AG4" s="103">
+      <c r="AG4" s="92">
         <v>346673041</v>
       </c>
-      <c r="AH4" s="103">
+      <c r="AH4" s="92">
         <v>346673042</v>
       </c>
-      <c r="AI4" s="103">
+      <c r="AI4" s="92">
         <v>346673043</v>
       </c>
-      <c r="AJ4" s="103">
+      <c r="AJ4" s="92">
         <v>346673044</v>
       </c>
-      <c r="AK4" s="104">
+      <c r="AK4" s="93">
         <f>SUM(AF4:AJ4)/5</f>
         <v>346673042</v>
       </c>
@@ -4992,117 +5896,117 @@
       <c r="A5" s="44">
         <v>1700</v>
       </c>
-      <c r="B5" s="134">
+      <c r="B5" s="117">
         <v>28716400</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="118">
         <v>28716400</v>
       </c>
-      <c r="D5" s="135">
+      <c r="D5" s="118">
         <v>28716400</v>
       </c>
-      <c r="E5" s="135">
+      <c r="E5" s="118">
         <v>28716400</v>
       </c>
-      <c r="F5" s="135">
+      <c r="F5" s="118">
         <v>28716400</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="119">
         <f t="shared" si="0"/>
         <v>28716400</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="53">
         <v>272377776</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="54">
         <v>272377776</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="54">
         <v>272377776</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="54">
         <v>272377776</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="54">
         <v>272377776</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="55">
         <f t="shared" si="1"/>
         <v>272377776</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="66">
         <v>272377776</v>
       </c>
-      <c r="O5" s="72">
+      <c r="O5" s="67">
         <v>272377776</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="67">
         <v>272377776</v>
       </c>
-      <c r="Q5" s="72">
+      <c r="Q5" s="67">
         <v>272377776</v>
       </c>
-      <c r="R5" s="72">
+      <c r="R5" s="67">
         <v>272377776</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="68">
         <f t="shared" si="2"/>
         <v>272377776</v>
       </c>
-      <c r="T5" s="86">
+      <c r="T5" s="78">
         <v>272377776</v>
       </c>
-      <c r="U5" s="87">
+      <c r="U5" s="79">
         <v>272377776</v>
       </c>
-      <c r="V5" s="87">
+      <c r="V5" s="79">
         <v>272377776</v>
       </c>
-      <c r="W5" s="87">
+      <c r="W5" s="79">
         <v>272377776</v>
       </c>
-      <c r="X5" s="87">
+      <c r="X5" s="79">
         <v>272377776</v>
       </c>
-      <c r="Y5" s="88">
+      <c r="Y5" s="80">
         <f t="shared" si="3"/>
         <v>272377776</v>
       </c>
-      <c r="Z5" s="118">
+      <c r="Z5" s="104">
         <v>272377776</v>
       </c>
-      <c r="AA5" s="119">
+      <c r="AA5" s="105">
         <v>272377776</v>
       </c>
-      <c r="AB5" s="119">
+      <c r="AB5" s="105">
         <v>272377776</v>
       </c>
-      <c r="AC5" s="119">
+      <c r="AC5" s="105">
         <v>272377776</v>
       </c>
-      <c r="AD5" s="119">
+      <c r="AD5" s="105">
         <v>272377776</v>
       </c>
-      <c r="AE5" s="120">
+      <c r="AE5" s="106">
         <f t="shared" si="4"/>
         <v>272377776</v>
       </c>
-      <c r="AF5" s="102">
+      <c r="AF5" s="91">
         <v>272377776</v>
       </c>
-      <c r="AG5" s="103">
+      <c r="AG5" s="92">
         <v>272377776</v>
       </c>
-      <c r="AH5" s="103">
+      <c r="AH5" s="92">
         <v>272377776</v>
       </c>
-      <c r="AI5" s="103">
+      <c r="AI5" s="92">
         <v>272377776</v>
       </c>
-      <c r="AJ5" s="103">
+      <c r="AJ5" s="92">
         <v>272377776</v>
       </c>
-      <c r="AK5" s="104">
+      <c r="AK5" s="93">
         <f t="shared" ref="AK5:AK6" si="5">SUM(AF5:AJ5)/5</f>
         <v>272377776</v>
       </c>
@@ -5111,117 +6015,117 @@
       <c r="A6" s="45">
         <v>2538</v>
       </c>
-      <c r="B6" s="137">
+      <c r="B6" s="120">
         <v>28714932</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="121">
         <v>28714932</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="121">
         <v>28714932</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="121">
         <v>28714932</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="121">
         <v>28714932</v>
       </c>
-      <c r="G6" s="139">
+      <c r="G6" s="122">
         <f t="shared" si="0"/>
         <v>28714932</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="56">
         <v>191624796</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="57">
         <v>191624796</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="57">
         <v>191624796</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="57">
         <v>191624796</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="57">
         <v>191624796</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="58">
         <f t="shared" si="1"/>
         <v>191624796</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="69">
         <v>191624796</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="70">
         <v>191624796</v>
       </c>
-      <c r="P6" s="75">
+      <c r="P6" s="70">
         <v>191624796</v>
       </c>
-      <c r="Q6" s="75">
+      <c r="Q6" s="70">
         <v>191624796</v>
       </c>
-      <c r="R6" s="75">
+      <c r="R6" s="70">
         <v>191624796</v>
       </c>
-      <c r="S6" s="76">
+      <c r="S6" s="71">
         <f t="shared" si="2"/>
         <v>191624796</v>
       </c>
-      <c r="T6" s="89">
+      <c r="T6" s="81">
         <v>191624796</v>
       </c>
-      <c r="U6" s="90">
+      <c r="U6" s="82">
         <v>191624796</v>
       </c>
-      <c r="V6" s="90">
+      <c r="V6" s="82">
         <v>191624796</v>
       </c>
-      <c r="W6" s="90">
+      <c r="W6" s="82">
         <v>191624796</v>
       </c>
-      <c r="X6" s="90">
+      <c r="X6" s="82">
         <v>191624796</v>
       </c>
-      <c r="Y6" s="91">
+      <c r="Y6" s="83">
         <f t="shared" si="3"/>
         <v>191624796</v>
       </c>
-      <c r="Z6" s="121">
+      <c r="Z6" s="107">
         <v>191624796</v>
       </c>
-      <c r="AA6" s="122">
+      <c r="AA6" s="108">
         <v>191624796</v>
       </c>
-      <c r="AB6" s="122">
+      <c r="AB6" s="108">
         <v>191624796</v>
       </c>
-      <c r="AC6" s="122">
+      <c r="AC6" s="108">
         <v>191624796</v>
       </c>
-      <c r="AD6" s="122">
+      <c r="AD6" s="108">
         <v>191624796</v>
       </c>
-      <c r="AE6" s="123">
+      <c r="AE6" s="109">
         <f t="shared" si="4"/>
         <v>191624796</v>
       </c>
-      <c r="AF6" s="105">
+      <c r="AF6" s="94">
         <v>191624796</v>
       </c>
-      <c r="AG6" s="106">
+      <c r="AG6" s="95">
         <v>191624796</v>
       </c>
-      <c r="AH6" s="106">
+      <c r="AH6" s="95">
         <v>191624796</v>
       </c>
-      <c r="AI6" s="106">
+      <c r="AI6" s="95">
         <v>191624796</v>
       </c>
-      <c r="AJ6" s="106">
+      <c r="AJ6" s="95">
         <v>191624796</v>
       </c>
-      <c r="AK6" s="107">
+      <c r="AK6" s="96">
         <f t="shared" si="5"/>
         <v>191624796</v>
       </c>

--- a/wiki/results.xlsx
+++ b/wiki/results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAW\SNA\git\stream_sctp\wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\sctp\stream_sctp\wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" xr2:uid="{1FC0FC70-8077-422C-BA69-ADF5459A3B97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -789,7 +789,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -876,8 +875,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,7 +894,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1413,10 +1412,10 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>330494924</c:v>
+                  <c:v>330494922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>346673042</c:v>
+                  <c:v>346673040</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>272377776</c:v>
@@ -1497,6 +1496,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1522,7 +1522,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1560,7 +1560,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="163003176"/>
@@ -1614,6 +1614,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1639,7 +1640,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1677,7 +1678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="163004488"/>
@@ -1694,6 +1695,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1719,12 +1721,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1732,7 +1735,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1756,7 +1758,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1770,7 +1772,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1782,6 +1784,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1807,7 +1810,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1958,7 +1961,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485858512"/>
@@ -2020,7 +2023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485853920"/>
@@ -2037,6 +2040,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2044,7 +2048,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2068,7 +2071,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2082,7 +2085,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2144,7 +2147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2362,7 +2365,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="499145032"/>
@@ -2418,7 +2421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="499147000"/>
@@ -2435,6 +2438,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2442,7 +2446,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2466,7 +2469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2480,7 +2483,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2542,7 +2545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2694,7 +2697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661855832"/>
@@ -2756,7 +2759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661858128"/>
@@ -2773,6 +2776,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2780,7 +2784,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2804,7 +2807,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5475,14 +5478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F06F1E-464F-4E93-A2C2-40B7340BE62A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -5492,75 +5495,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="132" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
       <c r="M1" s="13"/>
-      <c r="N1" s="126" t="s">
+      <c r="N1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="137" t="s">
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="134" t="s">
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="123" t="s">
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="125"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="124"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="112" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="46" t="s">
@@ -5617,22 +5620,22 @@
       <c r="Y2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="97" t="s">
+      <c r="Z2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="98" t="s">
+      <c r="AA2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="98" t="s">
+      <c r="AB2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="98" t="s">
+      <c r="AC2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="99" t="s">
+      <c r="AD2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="100" t="s">
+      <c r="AE2" s="99" t="s">
         <v>12</v>
       </c>
       <c r="AF2" s="84" t="s">
@@ -5658,22 +5661,22 @@
       <c r="A3" s="42">
         <v>786</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="113">
         <v>28717296</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="114">
         <v>28717296</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="114">
         <v>28717296</v>
       </c>
-      <c r="E3" s="115">
+      <c r="E3" s="114">
         <v>28717296</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="114">
         <v>28717296</v>
       </c>
-      <c r="G3" s="116">
+      <c r="G3" s="115">
         <f>SUM(B3:F3)/5</f>
         <v>28717296</v>
       </c>
@@ -5734,65 +5737,65 @@
         <f>SUM(T3:X3)/5</f>
         <v>330461124</v>
       </c>
-      <c r="Z3" s="101">
+      <c r="Z3" s="100">
         <v>330438330</v>
       </c>
-      <c r="AA3" s="102">
+      <c r="AA3" s="101">
         <v>330438330</v>
       </c>
-      <c r="AB3" s="102">
+      <c r="AB3" s="101">
         <v>330438330</v>
       </c>
-      <c r="AC3" s="102">
+      <c r="AC3" s="101">
         <v>330438330</v>
       </c>
-      <c r="AD3" s="102">
+      <c r="AD3" s="101">
         <v>330438330</v>
       </c>
-      <c r="AE3" s="103">
+      <c r="AE3" s="102">
         <f>SUM(Z3:AD3)/5</f>
         <v>330438330</v>
       </c>
       <c r="AF3" s="88">
         <v>330494922</v>
       </c>
-      <c r="AG3" s="89">
-        <v>330494923</v>
-      </c>
-      <c r="AH3" s="89">
-        <v>330494924</v>
-      </c>
-      <c r="AI3" s="89">
-        <v>330494925</v>
-      </c>
-      <c r="AJ3" s="89">
-        <v>330494926</v>
-      </c>
-      <c r="AK3" s="90">
+      <c r="AG3" s="88">
+        <v>330494922</v>
+      </c>
+      <c r="AH3" s="88">
+        <v>330494922</v>
+      </c>
+      <c r="AI3" s="88">
+        <v>330494922</v>
+      </c>
+      <c r="AJ3" s="88">
+        <v>330494922</v>
+      </c>
+      <c r="AK3" s="89">
         <f>SUM(AF3:AJ3)/5</f>
-        <v>330494924</v>
+        <v>330494922</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>1438</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="116">
         <v>34031708</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="117">
         <v>34031708</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4" s="117">
         <v>34031708</v>
       </c>
-      <c r="E4" s="118">
+      <c r="E4" s="117">
         <v>34031708</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="117">
         <v>34031708</v>
       </c>
-      <c r="G4" s="119">
+      <c r="G4" s="118">
         <f t="shared" ref="G4:G6" si="0">SUM(B4:F4)/5</f>
         <v>34031708</v>
       </c>
@@ -5853,65 +5856,65 @@
         <f t="shared" ref="Y4:Y6" si="3">SUM(T4:X4)/5</f>
         <v>346673040</v>
       </c>
-      <c r="Z4" s="104">
+      <c r="Z4" s="103">
         <v>346673040</v>
       </c>
-      <c r="AA4" s="105">
+      <c r="AA4" s="104">
         <v>346673040</v>
       </c>
-      <c r="AB4" s="105">
+      <c r="AB4" s="104">
         <v>346673040</v>
       </c>
-      <c r="AC4" s="105">
+      <c r="AC4" s="104">
         <v>346673040</v>
       </c>
-      <c r="AD4" s="105">
+      <c r="AD4" s="104">
         <v>346673040</v>
       </c>
-      <c r="AE4" s="106">
+      <c r="AE4" s="105">
         <f t="shared" ref="AE4:AE6" si="4">SUM(Z4:AD4)/5</f>
         <v>346673040</v>
       </c>
-      <c r="AF4" s="91">
+      <c r="AF4" s="90">
         <v>346673040</v>
       </c>
-      <c r="AG4" s="92">
-        <v>346673041</v>
-      </c>
-      <c r="AH4" s="92">
-        <v>346673042</v>
-      </c>
-      <c r="AI4" s="92">
-        <v>346673043</v>
-      </c>
-      <c r="AJ4" s="92">
-        <v>346673044</v>
-      </c>
-      <c r="AK4" s="93">
+      <c r="AG4" s="90">
+        <v>346673040</v>
+      </c>
+      <c r="AH4" s="90">
+        <v>346673040</v>
+      </c>
+      <c r="AI4" s="90">
+        <v>346673040</v>
+      </c>
+      <c r="AJ4" s="90">
+        <v>346673040</v>
+      </c>
+      <c r="AK4" s="92">
         <f>SUM(AF4:AJ4)/5</f>
-        <v>346673042</v>
+        <v>346673040</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
         <v>1700</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="116">
         <v>28716400</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="117">
         <v>28716400</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="117">
         <v>28716400</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5" s="117">
         <v>28716400</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="117">
         <v>28716400</v>
       </c>
-      <c r="G5" s="119">
+      <c r="G5" s="118">
         <f t="shared" si="0"/>
         <v>28716400</v>
       </c>
@@ -5972,41 +5975,41 @@
         <f t="shared" si="3"/>
         <v>272377776</v>
       </c>
-      <c r="Z5" s="104">
+      <c r="Z5" s="103">
         <v>272377776</v>
       </c>
-      <c r="AA5" s="105">
+      <c r="AA5" s="104">
         <v>272377776</v>
       </c>
-      <c r="AB5" s="105">
+      <c r="AB5" s="104">
         <v>272377776</v>
       </c>
-      <c r="AC5" s="105">
+      <c r="AC5" s="104">
         <v>272377776</v>
       </c>
-      <c r="AD5" s="105">
+      <c r="AD5" s="104">
         <v>272377776</v>
       </c>
-      <c r="AE5" s="106">
+      <c r="AE5" s="105">
         <f t="shared" si="4"/>
         <v>272377776</v>
       </c>
-      <c r="AF5" s="91">
+      <c r="AF5" s="90">
         <v>272377776</v>
       </c>
-      <c r="AG5" s="92">
+      <c r="AG5" s="91">
         <v>272377776</v>
       </c>
-      <c r="AH5" s="92">
+      <c r="AH5" s="91">
         <v>272377776</v>
       </c>
-      <c r="AI5" s="92">
+      <c r="AI5" s="91">
         <v>272377776</v>
       </c>
-      <c r="AJ5" s="92">
+      <c r="AJ5" s="91">
         <v>272377776</v>
       </c>
-      <c r="AK5" s="93">
+      <c r="AK5" s="92">
         <f t="shared" ref="AK5:AK6" si="5">SUM(AF5:AJ5)/5</f>
         <v>272377776</v>
       </c>
@@ -6015,22 +6018,22 @@
       <c r="A6" s="45">
         <v>2538</v>
       </c>
-      <c r="B6" s="120">
+      <c r="B6" s="119">
         <v>28714932</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="120">
         <v>28714932</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="120">
         <v>28714932</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="120">
         <v>28714932</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="120">
         <v>28714932</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="121">
         <f t="shared" si="0"/>
         <v>28714932</v>
       </c>
@@ -6091,41 +6094,41 @@
         <f t="shared" si="3"/>
         <v>191624796</v>
       </c>
-      <c r="Z6" s="107">
+      <c r="Z6" s="106">
         <v>191624796</v>
       </c>
-      <c r="AA6" s="108">
+      <c r="AA6" s="107">
         <v>191624796</v>
       </c>
-      <c r="AB6" s="108">
+      <c r="AB6" s="107">
         <v>191624796</v>
       </c>
-      <c r="AC6" s="108">
+      <c r="AC6" s="107">
         <v>191624796</v>
       </c>
-      <c r="AD6" s="108">
+      <c r="AD6" s="107">
         <v>191624796</v>
       </c>
-      <c r="AE6" s="109">
+      <c r="AE6" s="108">
         <f t="shared" si="4"/>
         <v>191624796</v>
       </c>
-      <c r="AF6" s="94">
+      <c r="AF6" s="93">
         <v>191624796</v>
       </c>
-      <c r="AG6" s="95">
+      <c r="AG6" s="94">
         <v>191624796</v>
       </c>
-      <c r="AH6" s="95">
+      <c r="AH6" s="94">
         <v>191624796</v>
       </c>
-      <c r="AI6" s="95">
+      <c r="AI6" s="94">
         <v>191624796</v>
       </c>
-      <c r="AJ6" s="95">
+      <c r="AJ6" s="94">
         <v>191624796</v>
       </c>
-      <c r="AK6" s="96">
+      <c r="AK6" s="95">
         <f t="shared" si="5"/>
         <v>191624796</v>
       </c>
@@ -6152,14 +6155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF31146-C59B-4435-9BAF-6D4ACD82C14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
